--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H2">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I2">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J2">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N2">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O2">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P2">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q2">
-        <v>4286.292974859845</v>
+        <v>747.8917855819093</v>
       </c>
       <c r="R2">
-        <v>38576.63677373861</v>
+        <v>6731.026070237184</v>
       </c>
       <c r="S2">
-        <v>0.1115125350497709</v>
+        <v>0.02732565646854754</v>
       </c>
       <c r="T2">
-        <v>0.1115125350497709</v>
+        <v>0.02732565646854755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H3">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I3">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J3">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>28.185334</v>
       </c>
       <c r="N3">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O3">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P3">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q3">
-        <v>2714.832397139164</v>
+        <v>1537.111166014123</v>
       </c>
       <c r="R3">
-        <v>24433.49157425248</v>
+        <v>13834.0004941271</v>
       </c>
       <c r="S3">
-        <v>0.07062929310149027</v>
+        <v>0.05616129563956861</v>
       </c>
       <c r="T3">
-        <v>0.07062929310149027</v>
+        <v>0.05616129563956861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H4">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I4">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J4">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N4">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O4">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P4">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q4">
-        <v>1640.512021534452</v>
+        <v>1149.454614971847</v>
       </c>
       <c r="R4">
-        <v>14764.60819381007</v>
+        <v>10345.09153474662</v>
       </c>
       <c r="S4">
-        <v>0.04267968973980667</v>
+        <v>0.04199752228922869</v>
       </c>
       <c r="T4">
-        <v>0.04267968973980666</v>
+        <v>0.04199752228922869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H5">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I5">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J5">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N5">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O5">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P5">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q5">
-        <v>6002.478138319499</v>
+        <v>4862.326370393316</v>
       </c>
       <c r="R5">
-        <v>54022.3032448755</v>
+        <v>43760.93733353984</v>
       </c>
       <c r="S5">
-        <v>0.1561609431998109</v>
+        <v>0.1776543914464158</v>
       </c>
       <c r="T5">
-        <v>0.1561609431998109</v>
+        <v>0.1776543914464158</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J6">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N6">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O6">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P6">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q6">
-        <v>821.6818437466684</v>
+        <v>253.2201998579546</v>
       </c>
       <c r="R6">
-        <v>7395.136593720016</v>
+        <v>2278.981798721592</v>
       </c>
       <c r="S6">
-        <v>0.02137693945280464</v>
+        <v>0.009251884197165855</v>
       </c>
       <c r="T6">
-        <v>0.02137693945280464</v>
+        <v>0.009251884197165855</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J7">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>28.185334</v>
       </c>
       <c r="N7">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O7">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P7">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q7">
         <v>520.4330414715613</v>
       </c>
       <c r="R7">
-        <v>4683.897373244052</v>
+        <v>4683.897373244051</v>
       </c>
       <c r="S7">
-        <v>0.01353962692670443</v>
+        <v>0.01901501631692374</v>
       </c>
       <c r="T7">
-        <v>0.01353962692670443</v>
+        <v>0.01901501631692375</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>55.394026</v>
       </c>
       <c r="I8">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J8">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N8">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O8">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P8">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q8">
-        <v>314.4859556846039</v>
+        <v>389.1808052208401</v>
       </c>
       <c r="R8">
-        <v>2830.373601161436</v>
+        <v>3502.627246987561</v>
       </c>
       <c r="S8">
-        <v>0.008181691349991494</v>
+        <v>0.01421946489135852</v>
       </c>
       <c r="T8">
-        <v>0.008181691349991494</v>
+        <v>0.01421946489135852</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>55.394026</v>
       </c>
       <c r="I9">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J9">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N9">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O9">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P9">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q9">
-        <v>1150.674331566126</v>
+        <v>1646.279955231241</v>
       </c>
       <c r="R9">
-        <v>10356.06898409514</v>
+        <v>14816.51959708117</v>
       </c>
       <c r="S9">
-        <v>0.02993603388341299</v>
+        <v>0.06014998610086738</v>
       </c>
       <c r="T9">
-        <v>0.02993603388341299</v>
+        <v>0.06014998610086737</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H10">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N10">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O10">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P10">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q10">
-        <v>673.1627496149094</v>
+        <v>172.1949531677853</v>
       </c>
       <c r="R10">
-        <v>6058.464746534185</v>
+        <v>1549.754578510068</v>
       </c>
       <c r="S10">
-        <v>0.01751305502235001</v>
+        <v>0.006291471876802963</v>
       </c>
       <c r="T10">
-        <v>0.01751305502235001</v>
+        <v>0.006291471876802963</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H11">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I11">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J11">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>28.185334</v>
       </c>
       <c r="N11">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O11">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P11">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q11">
-        <v>426.3647053341221</v>
+        <v>353.9051910291286</v>
       </c>
       <c r="R11">
-        <v>3837.282348007099</v>
+        <v>3185.146719262158</v>
       </c>
       <c r="S11">
-        <v>0.01109233769749749</v>
+        <v>0.01293060287454986</v>
       </c>
       <c r="T11">
-        <v>0.0110923376974975</v>
+        <v>0.01293060287454986</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H12">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I12">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J12">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N12">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O12">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P12">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q12">
-        <v>257.642580586446</v>
+        <v>264.6509661014247</v>
       </c>
       <c r="R12">
-        <v>2318.783225278014</v>
+        <v>2381.858694912823</v>
       </c>
       <c r="S12">
-        <v>0.006702849634047455</v>
+        <v>0.009669529099226519</v>
       </c>
       <c r="T12">
-        <v>0.006702849634047455</v>
+        <v>0.009669529099226521</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H13">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I13">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J13">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N13">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O13">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P13">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q13">
-        <v>942.6898048719264</v>
+        <v>1119.504288959284</v>
       </c>
       <c r="R13">
-        <v>8484.208243847337</v>
+        <v>10075.53860063356</v>
       </c>
       <c r="S13">
-        <v>0.02452509208386058</v>
+        <v>0.04090322985880237</v>
       </c>
       <c r="T13">
-        <v>0.02452509208386058</v>
+        <v>0.04090322985880238</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H14">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I14">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J14">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N14">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O14">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P14">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q14">
-        <v>5469.493136894951</v>
+        <v>1293.852076123825</v>
       </c>
       <c r="R14">
-        <v>49225.43823205457</v>
+        <v>11644.66868511443</v>
       </c>
       <c r="S14">
-        <v>0.1422947634960541</v>
+        <v>0.04727335964222132</v>
       </c>
       <c r="T14">
-        <v>0.1422947634960541</v>
+        <v>0.04727335964222133</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H15">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I15">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J15">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>28.185334</v>
       </c>
       <c r="N15">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O15">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P15">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q15">
-        <v>3464.242237071594</v>
+        <v>2659.200851942868</v>
       </c>
       <c r="R15">
-        <v>31178.18013364435</v>
+        <v>23932.80766748582</v>
       </c>
       <c r="S15">
-        <v>0.09012599842057567</v>
+        <v>0.09715898792032066</v>
       </c>
       <c r="T15">
-        <v>0.09012599842057567</v>
+        <v>0.09715898792032068</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H16">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I16">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J16">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N16">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O16">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P16">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q16">
-        <v>2093.363495076941</v>
+        <v>1988.555388175948</v>
       </c>
       <c r="R16">
-        <v>18840.27145569247</v>
+        <v>17896.99849358353</v>
       </c>
       <c r="S16">
-        <v>0.05446110928157247</v>
+        <v>0.07265567352594486</v>
       </c>
       <c r="T16">
-        <v>0.05446110928157247</v>
+        <v>0.07265567352594487</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H17">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I17">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J17">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N17">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O17">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P17">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q17">
-        <v>7659.41879718896</v>
+        <v>8411.819985735101</v>
       </c>
       <c r="R17">
-        <v>68934.76917470065</v>
+        <v>75706.37987161591</v>
       </c>
       <c r="S17">
-        <v>0.1992680416602499</v>
+        <v>0.3073419278520552</v>
       </c>
       <c r="T17">
-        <v>0.1992680416602499</v>
+        <v>0.3073419278520552</v>
       </c>
     </row>
   </sheetData>
